--- a/biology/Botanique/Mesua_ferrea/Mesua_ferrea.xlsx
+++ b/biology/Botanique/Mesua_ferrea/Mesua_ferrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesua ferrea est une espèce de plantes à fleurs de la famille des Calophyllaceae. Cet arbre sempervirent est originaire des régions humides et tropicales du Sri Lanka, d'Inde, de Birmanie, de Thaïlande, d'Indochine, des Philippines, de Malaisie et de Sumatra. Il pousse dans les forêts sempervirentes, surtout près des rivières, dans les vallées.
 Il est cultivé comme plante ornementale pour son port gracieux, pour son feuillage vert-grisâtre et ses fleurs blanches. Les feuilles les plus jeunes sont rouge-rosé.
